--- a/Data/StormIntervals_defined.xlsx
+++ b/Data/StormIntervals_defined.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="StormIntervals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>duration (hrs)</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -61,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,16 +93,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,17 +419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -418,8 +442,11 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -432,8 +459,15 @@
       <c r="D2">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>MAX(D:D)</f>
+        <v>188.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,8 +480,15 @@
       <c r="D3">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>MIN(D:D)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -460,8 +501,11 @@
       <c r="D4">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -474,8 +518,11 @@
       <c r="D5">
         <v>28.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -488,8 +535,11 @@
       <c r="D6">
         <v>36.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -502,8 +552,11 @@
       <c r="D7">
         <v>21.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -516,8 +569,11 @@
       <c r="D8">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -530,8 +586,11 @@
       <c r="D9">
         <v>40.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -544,8 +603,11 @@
       <c r="D10">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -558,8 +620,11 @@
       <c r="D11">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -572,8 +637,11 @@
       <c r="D12">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -586,8 +654,11 @@
       <c r="D13">
         <v>18.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -600,8 +671,11 @@
       <c r="D14">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -614,8 +688,11 @@
       <c r="D15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -628,8 +705,11 @@
       <c r="D16">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -642,8 +722,11 @@
       <c r="D17">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -656,8 +739,11 @@
       <c r="D18">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -671,7 +757,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -685,7 +771,7 @@
         <v>40.75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -699,7 +785,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -713,7 +799,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -727,7 +813,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -741,7 +827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -755,7 +841,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -769,7 +855,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -783,7 +869,7 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -797,7 +883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -811,7 +897,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -825,7 +911,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -839,7 +925,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
